--- a/Doc/2131.OHS.F.100 28.07. 2019 Contractor Working Shedule.xlsx
+++ b/Doc/2131.OHS.F.100 28.07. 2019 Contractor Working Shedule.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Huynh viet\Huynh viet\DNF\3.Load lịch\Tháng 07.2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\WindowApp\xepcacongnhan\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E900750-EE2A-4C3E-868D-26AD78649A32}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="30192" yWindow="2232" windowWidth="17280" windowHeight="8988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,11 +19,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$5:$H$77</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$5:$5</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -318,7 +320,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-1000000]h:mm:ss;@"/>
@@ -610,38 +612,10 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 18 2" xfId="2"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 18 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="29">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="25">
     <dxf>
       <fill>
         <patternFill>
@@ -1057,6 +1031,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1092,6 +1083,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1267,29 +1275,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="12" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="16" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="25" style="9" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="9" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="9" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E2" s="41" t="s">
         <v>6</v>
       </c>
@@ -1297,7 +1305,7 @@
       <c r="G2" s="41"/>
       <c r="H2" s="28"/>
     </row>
-    <row r="3" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6"/>
       <c r="B3" s="11"/>
       <c r="C3" s="42" t="s">
@@ -1311,7 +1319,7 @@
       </c>
       <c r="H3" s="17"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="26">
         <v>0.25</v>
       </c>
@@ -1329,7 +1337,7 @@
       </c>
       <c r="H4" s="30"/>
     </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="4" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1355,7 +1363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>1</v>
       </c>
@@ -1379,7 +1387,7 @@
       </c>
       <c r="H6" s="25"/>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f>A6+1</f>
         <v>2</v>
@@ -1404,7 +1412,7 @@
       </c>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f t="shared" ref="A8:A44" si="0">A7+1</f>
         <v>3</v>
@@ -1429,7 +1437,7 @@
       </c>
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1454,7 +1462,7 @@
       </c>
       <c r="H9" s="25"/>
     </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1479,7 +1487,7 @@
       </c>
       <c r="H10" s="25"/>
     </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1504,7 +1512,7 @@
       </c>
       <c r="H11" s="25"/>
     </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1529,7 +1537,7 @@
       </c>
       <c r="H12" s="25"/>
     </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1554,7 +1562,7 @@
       </c>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1579,7 +1587,7 @@
       </c>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1604,7 +1612,7 @@
       </c>
       <c r="H15" s="25"/>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1629,7 +1637,7 @@
       </c>
       <c r="H16" s="25"/>
     </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1654,7 +1662,7 @@
       </c>
       <c r="H17" s="25"/>
     </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1679,7 +1687,7 @@
       </c>
       <c r="H18" s="25"/>
     </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1704,7 +1712,7 @@
       </c>
       <c r="H19" s="25"/>
     </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1729,7 +1737,7 @@
       </c>
       <c r="H20" s="25"/>
     </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1754,7 +1762,7 @@
       </c>
       <c r="H21" s="25"/>
     </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1779,7 +1787,7 @@
       </c>
       <c r="H22" s="25"/>
     </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1804,7 +1812,7 @@
       </c>
       <c r="H23" s="25"/>
     </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1829,7 +1837,7 @@
       </c>
       <c r="H24" s="25"/>
     </row>
-    <row r="25" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1854,7 +1862,7 @@
       </c>
       <c r="H25" s="25"/>
     </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1879,7 +1887,7 @@
       </c>
       <c r="H26" s="25"/>
     </row>
-    <row r="27" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1904,7 +1912,7 @@
       </c>
       <c r="H27" s="25"/>
     </row>
-    <row r="28" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1929,7 +1937,7 @@
       </c>
       <c r="H28" s="25"/>
     </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1954,7 +1962,7 @@
       </c>
       <c r="H29" s="25"/>
     </row>
-    <row r="30" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1979,7 +1987,7 @@
       </c>
       <c r="H30" s="25"/>
     </row>
-    <row r="31" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2004,7 +2012,7 @@
       </c>
       <c r="H31" s="25"/>
     </row>
-    <row r="32" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2029,7 +2037,7 @@
       </c>
       <c r="H32" s="25"/>
     </row>
-    <row r="33" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2054,7 +2062,7 @@
       </c>
       <c r="H33" s="25"/>
     </row>
-    <row r="34" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2079,7 +2087,7 @@
       </c>
       <c r="H34" s="25"/>
     </row>
-    <row r="35" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2104,7 +2112,7 @@
       </c>
       <c r="H35" s="25"/>
     </row>
-    <row r="36" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2129,7 +2137,7 @@
       </c>
       <c r="H36" s="25"/>
     </row>
-    <row r="37" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2154,7 +2162,7 @@
       </c>
       <c r="H37" s="25"/>
     </row>
-    <row r="38" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2179,7 +2187,7 @@
       </c>
       <c r="H38" s="25"/>
     </row>
-    <row r="39" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2204,7 +2212,7 @@
       </c>
       <c r="H39" s="25"/>
     </row>
-    <row r="40" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2229,7 +2237,7 @@
       </c>
       <c r="H40" s="25"/>
     </row>
-    <row r="41" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2254,7 +2262,7 @@
       </c>
       <c r="H41" s="25"/>
     </row>
-    <row r="42" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2279,7 +2287,7 @@
       </c>
       <c r="H42" s="25"/>
     </row>
-    <row r="43" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2304,7 +2312,7 @@
       </c>
       <c r="H43" s="25"/>
     </row>
-    <row r="44" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2329,7 +2337,7 @@
       </c>
       <c r="H44" s="25"/>
     </row>
-    <row r="45" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <f t="shared" ref="A45:A76" si="1">A44+1</f>
         <v>40</v>
@@ -2354,7 +2362,7 @@
       </c>
       <c r="H45" s="25"/>
     </row>
-    <row r="46" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -2367,7 +2375,7 @@
       <c r="G46" s="25"/>
       <c r="H46" s="25"/>
     </row>
-    <row r="47" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -2380,7 +2388,7 @@
       <c r="G47" s="36"/>
       <c r="H47" s="25"/>
     </row>
-    <row r="48" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -2393,7 +2401,7 @@
       <c r="G48" s="36"/>
       <c r="H48" s="25"/>
     </row>
-    <row r="49" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -2406,7 +2414,7 @@
       <c r="G49" s="36"/>
       <c r="H49" s="25"/>
     </row>
-    <row r="50" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -2419,7 +2427,7 @@
       <c r="G50" s="36"/>
       <c r="H50" s="25"/>
     </row>
-    <row r="51" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -2432,7 +2440,7 @@
       <c r="G51" s="36"/>
       <c r="H51" s="25"/>
     </row>
-    <row r="52" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -2445,7 +2453,7 @@
       <c r="G52" s="36"/>
       <c r="H52" s="25"/>
     </row>
-    <row r="53" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -2458,7 +2466,7 @@
       <c r="G53" s="36"/>
       <c r="H53" s="25"/>
     </row>
-    <row r="54" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -2471,7 +2479,7 @@
       <c r="G54" s="36"/>
       <c r="H54" s="25"/>
     </row>
-    <row r="55" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -2484,7 +2492,7 @@
       <c r="G55" s="36"/>
       <c r="H55" s="25"/>
     </row>
-    <row r="56" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -2497,7 +2505,7 @@
       <c r="G56" s="36"/>
       <c r="H56" s="25"/>
     </row>
-    <row r="57" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -2510,7 +2518,7 @@
       <c r="G57" s="36"/>
       <c r="H57" s="25"/>
     </row>
-    <row r="58" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -2523,7 +2531,7 @@
       <c r="G58" s="36"/>
       <c r="H58" s="25"/>
     </row>
-    <row r="59" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -2536,7 +2544,7 @@
       <c r="G59" s="36"/>
       <c r="H59" s="25"/>
     </row>
-    <row r="60" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -2549,7 +2557,7 @@
       <c r="G60" s="36"/>
       <c r="H60" s="25"/>
     </row>
-    <row r="61" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -2562,7 +2570,7 @@
       <c r="G61" s="36"/>
       <c r="H61" s="25"/>
     </row>
-    <row r="62" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -2575,7 +2583,7 @@
       <c r="G62" s="36"/>
       <c r="H62" s="25"/>
     </row>
-    <row r="63" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -2588,7 +2596,7 @@
       <c r="G63" s="36"/>
       <c r="H63" s="25"/>
     </row>
-    <row r="64" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -2601,7 +2609,7 @@
       <c r="G64" s="36"/>
       <c r="H64" s="25"/>
     </row>
-    <row r="65" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -2614,7 +2622,7 @@
       <c r="G65" s="37"/>
       <c r="H65" s="25"/>
     </row>
-    <row r="66" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -2627,7 +2635,7 @@
       <c r="G66" s="37"/>
       <c r="H66" s="31"/>
     </row>
-    <row r="67" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -2640,7 +2648,7 @@
       <c r="G67" s="37"/>
       <c r="H67" s="31"/>
     </row>
-    <row r="68" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -2653,7 +2661,7 @@
       <c r="G68" s="37"/>
       <c r="H68" s="31"/>
     </row>
-    <row r="69" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -2666,7 +2674,7 @@
       <c r="G69" s="38"/>
       <c r="H69" s="31"/>
     </row>
-    <row r="70" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -2679,7 +2687,7 @@
       <c r="G70" s="38"/>
       <c r="H70" s="31"/>
     </row>
-    <row r="71" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -2692,7 +2700,7 @@
       <c r="G71" s="38"/>
       <c r="H71" s="31"/>
     </row>
-    <row r="72" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -2705,7 +2713,7 @@
       <c r="G72" s="38"/>
       <c r="H72" s="31"/>
     </row>
-    <row r="73" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -2718,7 +2726,7 @@
       <c r="G73" s="38"/>
       <c r="H73" s="31"/>
     </row>
-    <row r="74" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -2731,7 +2739,7 @@
       <c r="G74" s="38"/>
       <c r="H74" s="31"/>
     </row>
-    <row r="75" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -2744,7 +2752,7 @@
       <c r="G75" s="25"/>
       <c r="H75" s="31"/>
     </row>
-    <row r="76" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="8">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -2757,7 +2765,7 @@
       <c r="G76" s="25"/>
       <c r="H76" s="31"/>
     </row>
-    <row r="77" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="43" t="s">
         <v>8</v>
       </c>
@@ -2771,18 +2779,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="5:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="5:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" spans="5:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="5:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E82" s="33"/>
       <c r="F82" s="43"/>
       <c r="G82" s="43"/>
       <c r="H82" s="29"/>
     </row>
   </sheetData>
-  <autoFilter ref="B5:H77"/>
+  <autoFilter ref="B5:H77" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="5">
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="C3:F3"/>
@@ -2791,69 +2799,69 @@
     <mergeCell ref="D77:F77"/>
   </mergeCells>
   <conditionalFormatting sqref="D46:E74 D6:E39">
-    <cfRule type="containsText" dxfId="28" priority="982" operator="containsText" text="18:00">
+    <cfRule type="containsText" dxfId="24" priority="982" operator="containsText" text="18:00">
       <formula>NOT(ISERROR(SEARCH("18:00",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="983" operator="containsText" text="18h">
+    <cfRule type="containsText" dxfId="23" priority="983" operator="containsText" text="18h">
       <formula>NOT(ISERROR(SEARCH("18h",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76:E76">
-    <cfRule type="containsText" dxfId="26" priority="232" operator="containsText" text="18:00">
+    <cfRule type="containsText" dxfId="22" priority="232" operator="containsText" text="18:00">
       <formula>NOT(ISERROR(SEARCH("18:00",D76)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="233" operator="containsText" text="18h">
+    <cfRule type="containsText" dxfId="21" priority="233" operator="containsText" text="18h">
       <formula>NOT(ISERROR(SEARCH("18h",D76)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:E75">
-    <cfRule type="containsText" dxfId="24" priority="234" operator="containsText" text="18:00">
+    <cfRule type="containsText" dxfId="20" priority="234" operator="containsText" text="18:00">
       <formula>NOT(ISERROR(SEARCH("18:00",D75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="235" operator="containsText" text="18h">
+    <cfRule type="containsText" dxfId="19" priority="235" operator="containsText" text="18h">
       <formula>NOT(ISERROR(SEARCH("18h",D75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:H4">
-    <cfRule type="containsText" dxfId="22" priority="214" operator="containsText" text="18:00">
+    <cfRule type="containsText" dxfId="18" priority="214" operator="containsText" text="18:00">
       <formula>NOT(ISERROR(SEARCH("18:00",G4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="215" operator="containsText" text="18h">
+    <cfRule type="containsText" dxfId="17" priority="215" operator="containsText" text="18h">
       <formula>NOT(ISERROR(SEARCH("18h",G4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G69:G74">
-    <cfRule type="duplicateValues" dxfId="20" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="125"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text="18:00">
+    <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="18:00">
       <formula>NOT(ISERROR(SEARCH("18:00",D41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="22" operator="containsText" text="18h">
+    <cfRule type="containsText" dxfId="14" priority="22" operator="containsText" text="18h">
       <formula>NOT(ISERROR(SEARCH("18h",D41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="18:00">
+    <cfRule type="containsText" dxfId="13" priority="19" operator="containsText" text="18:00">
       <formula>NOT(ISERROR(SEARCH("18:00",E41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="18h">
+    <cfRule type="containsText" dxfId="12" priority="20" operator="containsText" text="18h">
       <formula>NOT(ISERROR(SEARCH("18h",E41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="18:00">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="18:00">
       <formula>NOT(ISERROR(SEARCH("18:00",D40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="18h">
+    <cfRule type="containsText" dxfId="10" priority="18" operator="containsText" text="18h">
       <formula>NOT(ISERROR(SEARCH("18h",D40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="18:00">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="18:00">
       <formula>NOT(ISERROR(SEARCH("18:00",E40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="18h">
+    <cfRule type="containsText" dxfId="8" priority="16" operator="containsText" text="18h">
       <formula>NOT(ISERROR(SEARCH("18h",E40)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2890,7 +2898,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="B69:B74">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="B69:B74" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>AND(COUNTIF(#REF!,#REF!)&lt;=1,OR(LEN(#REF!)=9,LEN(#REF!)=12))</formula1>
     </dataValidation>
   </dataValidations>
